--- a/case study propionate/test_scripts/output_ace.xlsx
+++ b/case study propionate/test_scripts/output_ace.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -532,22 +532,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>0.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
     </row>
